--- a/data/trans_camb/P5_3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_3-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>-0,53</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 23,39</t>
+          <t>-24,1; 24,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 10,39</t>
+          <t>-17,83; 18,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 13,76</t>
+          <t>-15,19; 15,15</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>-4,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,36%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>-1,76%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 93,75</t>
+          <t>-53,49; 104,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,99; 52,52</t>
+          <t>-53,26; 108,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,36; 53,57</t>
+          <t>-41,18; 64,94</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 9,04</t>
+          <t>-8,96; 13,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 5,95</t>
+          <t>-10,08; 8,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 4,92</t>
+          <t>-6,62; 7,59</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,28%</t>
+          <t>-4,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,11%</t>
+          <t>0,33%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 40,82</t>
+          <t>-28,22; 64,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 26,41</t>
+          <t>-31,99; 36,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 21,03</t>
+          <t>-21,72; 32,85</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 7,78</t>
+          <t>-9,78; 9,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 8,89</t>
+          <t>-9,09; 9,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 6,13</t>
+          <t>-6,48; 6,7</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,63%</t>
+          <t>-0,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>0,16%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 63,14</t>
+          <t>-45,44; 69,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 51,7</t>
+          <t>-30,18; 47,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,24; 37,73</t>
+          <t>-26,39; 37,89</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 6,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 4,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 4,26</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 31,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 21,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 18,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-6,29; 7,59</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-6,93; 5,36</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 4,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-1,74%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-23,73; 36,33</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-24,84; 23,43</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-16,14; 20,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P5_3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_3-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,42</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.007149755294204</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.322852562761756</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.645592674933445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-24,1; 24,15</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-17,83; 18,01</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-15,19; 15,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-19.6712410410032</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-16.58190204829537</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-11.95428813970736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,19%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,63%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,76%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>29.19570079137269</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>19.77533075862709</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>18.98623663614542</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-53,49; 104,02</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-53,26; 108,29</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-41,18; 64,94</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.1183966158583654</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.04847539753545128</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.08716130112407798</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,07</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.435674340351186</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.5107633364171473</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3163037831385137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,96; 13,06</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,08; 8,09</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,62; 7,59</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.290350551570204</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1.155958052128003</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.8304343257749148</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,98%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-4,05%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,33%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.9234158656898528</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.332425746269306</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.2607981461717812</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-28,22; 64,51</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-31,99; 36,16</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-21,72; 32,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.329619308916593</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.26625214203683</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.328531193660945</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.57976754633064</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.230145388580597</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.913397768166504</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,78; 9,15</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,09; 9,52</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,48; 6,7</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.03431682928332833</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.05052511462617514</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.009792914940773032</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,16%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,01%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,16%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.2901711607176772</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.3336613197984382</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2373103134670137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-45,44; 69,44</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-30,18; 47,19</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-26,39; 37,89</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.626824617616906</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.371169269895526</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.3058188775645914</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.449413752491587</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.5698634260102059</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.4266496068173836</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-9.483420545697095</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-8.664138514944838</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-6.150065665319141</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>11.96292331428605</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>10.64876979845367</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>7.268439132925381</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.02623198393142019</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.02280102699413132</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.01983378151973492</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.4320464375754995</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2947947332849463</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2507050735851164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-6,29; 7,59</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-6,93; 5,36</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-4,33; 4,72</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.885797084911118</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.5074185747832429</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.4104049090243738</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-1,74%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>0,03%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.126521704655506</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.1891821552465756</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.4219499466895149</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-23,73; 36,33</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-24,84; 23,43</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-16,14; 20,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.12908091210989</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.722301984365586</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-4.188671838103008</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.479472065453077</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5.864990342760953</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.40622743630442</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.04663385446316488</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.007297306054471502</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.01680924497220429</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.2228676180095386</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2373750539010491</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1524597041017703</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.408104537519707</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.254354768481388</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.2300172709857289</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
